--- a/pred_ohlcv/54_21/2020-01-16 POWR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 POWR ohlcv.xlsx
@@ -626,7 +626,7 @@
         <v>-172954.31411054</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-172954.31411054</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-168221.31411054</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-168221.31411054</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-163939.31411054</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-163939.31411054</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-156739.31411054</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-156739.31411054</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-130605.21631054</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-136453.51301054</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-136453.51301054</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-136453.51301054</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-136453.51301054</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-137247.51301054</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-137247.51301054</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-137247.51301054</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-137119.78249778</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-137119.78249778</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-87375.78249777999</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-87375.78249777999</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-99628.01628501998</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-92871.89588501999</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-89941.89588501999</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-89941.89588501999</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-89941.89588501999</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-89941.89588501999</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-93348.03728501998</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-92038.03728501998</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-92038.03728501998</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-92038.03728501998</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-92038.03728501998</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-92038.03728501998</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-92038.03728501998</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-115575.20818502</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-115575.20818502</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-109555.20818502</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-109795.67298502</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-108752.36008502</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-108752.36008502</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-107928.11288502</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-107928.11288502</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-102433.13628502</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-60395.46748501998</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>48750.94545706999</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>48762.87245706999</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>36884.72505706999</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>155346.00005707</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>155363.36735707</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>154671.68425707</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>154671.68425707</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>154671.68425707</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>139171.68425707</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>139245.86885707</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>135835.86895707</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>135896.07625707</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>135896.07625707</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>135896.07625707</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>135896.07625707</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>138111.89721873</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>135700.89721873</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>135755.22231873</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>135755.22231873</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-16 POWR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 POWR ohlcv.xlsx
@@ -990,7 +990,7 @@
         <v>-136453.51301054</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-136453.51301054</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-137247.51301054</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-137119.78249778</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-137119.78249778</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-87375.78249777999</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-87375.78249777999</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-99628.01628501998</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-92871.89588501999</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-89941.89588501999</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-89941.89588501999</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-89941.89588501999</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-89941.89588501999</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-93348.03728501998</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-92038.03728501998</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-92038.03728501998</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-92038.03728501998</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-92038.03728501998</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-92038.03728501998</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-92038.03728501998</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-115575.20818502</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-115575.20818502</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-109555.20818502</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-109795.67298502</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-108752.36008502</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-108752.36008502</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-107928.11288502</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-107928.11288502</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-102433.13628502</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>131014.00665707</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>63975.12365706997</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>65242.59225706997</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>68052.76185706997</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>70330.04075706998</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>69370.23175706998</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>69382.13385706999</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>48750.94545706999</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>48762.87245706999</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>36884.72505706999</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>155346.00005707</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>155386.85305707</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>155402.42495707</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>155363.36735707</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>155363.36735707</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>154185.23595707</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>154671.68425707</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>154671.68425707</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>154671.68425707</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>154671.68425707</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>139171.68425707</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>139245.86885707</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>135835.86895707</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>135896.07625707</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>135896.07625707</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>135896.07625707</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>135896.07625707</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>138111.89721873</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>135700.89721873</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>135755.22231873</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>135755.22231873</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
